--- a/docs/timesheet_Kevin_DeVuyst.xlsx
+++ b/docs/timesheet_Kevin_DeVuyst.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kevin/Dropbox/Arteveldehs/5de semester/CMP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kevin/Documents/cmp3/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="68800" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Datum</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>milestone 1</t>
+  </si>
+  <si>
+    <t>des</t>
+  </si>
+  <si>
+    <t>ideeboard</t>
   </si>
 </sst>
 </file>
@@ -425,7 +431,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -492,10 +498,18 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="5">
+        <v>42669</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
@@ -653,7 +667,7 @@
       </c>
       <c r="D37">
         <f>SUM(D2:D30)</f>
-        <v>4.25</v>
+        <v>6.25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/timesheet_Kevin_DeVuyst.xlsx
+++ b/docs/timesheet_Kevin_DeVuyst.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kevin/Documents/cmp3/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kevin/Documents/cmp3_gitlab/cmp3/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="68800" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcMode="autoNoTable" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>Datum</t>
   </si>
@@ -60,6 +60,39 @@
   </si>
   <si>
     <t>ideeboard</t>
+  </si>
+  <si>
+    <t>gitlab op pc zetten</t>
+  </si>
+  <si>
+    <t>Moodboard</t>
+  </si>
+  <si>
+    <t>Sitemap</t>
+  </si>
+  <si>
+    <t>wireframe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">style tile </t>
+  </si>
+  <si>
+    <t>wireframe aanpassen</t>
+  </si>
+  <si>
+    <t>dossier verder aanvullen</t>
+  </si>
+  <si>
+    <t>online omgeving opzetten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opzoeken HTML 5 template </t>
+  </si>
+  <si>
+    <t>html 5 template maken</t>
+  </si>
+  <si>
+    <t>presentatie verder afwerken</t>
   </si>
 </sst>
 </file>
@@ -431,14 +464,14 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.3">
@@ -512,100 +545,228 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="5">
+        <v>42679</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="5">
+        <v>42679</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="5">
+        <v>42680</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="5">
+        <v>42681</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="5">
+        <v>42681</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" s="5">
+        <v>42681</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="5">
+        <v>42682</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="5">
+        <v>42683</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="5">
+        <v>42684</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="5">
+        <v>42684</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="5">
+        <v>42685</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="5">
+        <v>42685</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="A18" s="5">
+        <v>42685</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="A19" s="5">
+        <v>42686</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="A20" s="5">
+        <v>42687</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="A21" s="5">
+        <v>42687</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
@@ -667,7 +828,7 @@
       </c>
       <c r="D37">
         <f>SUM(D2:D30)</f>
-        <v>6.25</v>
+        <v>31.75</v>
       </c>
     </row>
   </sheetData>
